--- a/team_specific_matrix/Winthrop_A.xlsx
+++ b/team_specific_matrix/Winthrop_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.203125</v>
+        <v>0.2025</v>
       </c>
       <c r="C2">
-        <v>0.55</v>
+        <v>0.5575</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01875</v>
+        <v>0.015</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.121875</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.10625</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01129943502824859</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="C3">
-        <v>0.005649717514124294</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.768361581920904</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2146892655367232</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07843137254901961</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0196078431372549</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.196078431372549</v>
+        <v>0.2428571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06936416184971098</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01734104046242774</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="E6">
-        <v>0.005780346820809248</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="F6">
-        <v>0.06358381502890173</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4046242774566474</v>
+        <v>0.4026548672566372</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005780346820809248</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1502890173410405</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="R6">
-        <v>0.04046242774566474</v>
+        <v>0.03982300884955752</v>
       </c>
       <c r="S6">
-        <v>0.2427745664739884</v>
+        <v>0.2433628318584071</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1266666666666667</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02666666666666667</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03333333333333333</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.14</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03333333333333333</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.12</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="R7">
-        <v>0.12</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.4153005464480874</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1661631419939577</v>
+        <v>0.1614457831325301</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02416918429003021</v>
+        <v>0.02650602409638554</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04531722054380664</v>
+        <v>0.05301204819277108</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1117824773413897</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02719033232628399</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1450151057401813</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="R8">
-        <v>0.09365558912386707</v>
+        <v>0.09397590361445783</v>
       </c>
       <c r="S8">
-        <v>0.3867069486404834</v>
+        <v>0.3759036144578313</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1225806451612903</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02580645161290323</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="E9">
-        <v>0.006451612903225806</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="F9">
-        <v>0.02580645161290323</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1419354838709677</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02580645161290323</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2129032258064516</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="R9">
-        <v>0.07096774193548387</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="S9">
-        <v>0.367741935483871</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.141025641025641</v>
+        <v>0.1423047177107502</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03155818540433925</v>
+        <v>0.03480278422273782</v>
       </c>
       <c r="E10">
-        <v>0.002958579881656805</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="F10">
-        <v>0.05325443786982249</v>
+        <v>0.05413766434648105</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1193293885601578</v>
+        <v>0.119876256767208</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01282051282051282</v>
+        <v>0.01160092807424594</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2011834319526627</v>
+        <v>0.1979891724671307</v>
       </c>
       <c r="R10">
-        <v>0.08678500986193294</v>
+        <v>0.08816705336426914</v>
       </c>
       <c r="S10">
-        <v>0.3510848126232742</v>
+        <v>0.3488012374323279</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1125541125541126</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07792207792207792</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="K11">
-        <v>0.1774891774891775</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="L11">
-        <v>0.6103896103896104</v>
+        <v>0.6134751773049646</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02164502164502164</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7724137931034483</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1586206896551724</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="K12">
-        <v>0.006896551724137931</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="L12">
-        <v>0.02068965517241379</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04137931034482759</v>
+        <v>0.03977272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6428571428571429</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02051282051282051</v>
+        <v>0.03347280334728033</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.08717948717948718</v>
+        <v>0.09623430962343096</v>
       </c>
       <c r="I15">
-        <v>0.08205128205128205</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="J15">
-        <v>0.4051282051282051</v>
+        <v>0.401673640167364</v>
       </c>
       <c r="K15">
-        <v>0.09230769230769231</v>
+        <v>0.08368200836820083</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005128205128205128</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.241025641025641</v>
+        <v>0.2343096234309623</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02380952380952381</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1714285714285714</v>
+        <v>0.1735849056603773</v>
       </c>
       <c r="I16">
-        <v>0.1047619047619048</v>
+        <v>0.09056603773584905</v>
       </c>
       <c r="J16">
-        <v>0.3523809523809524</v>
+        <v>0.3547169811320754</v>
       </c>
       <c r="K16">
-        <v>0.119047619047619</v>
+        <v>0.1056603773584906</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01428571428571429</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N16">
-        <v>0.004761904761904762</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="O16">
-        <v>0.0761904761904762</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1333333333333333</v>
+        <v>0.1471698113207547</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.05775075987841945</v>
+        <v>0.05528846153846154</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.182370820668693</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I17">
-        <v>0.0668693009118541</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="J17">
-        <v>0.39209726443769</v>
+        <v>0.40625</v>
       </c>
       <c r="K17">
-        <v>0.08206686930091185</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01519756838905775</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="N17">
-        <v>0.00303951367781155</v>
+        <v>0.002403846153846154</v>
       </c>
       <c r="O17">
-        <v>0.09422492401215805</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1063829787234043</v>
+        <v>0.1177884615384615</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04635761589403974</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09933774834437085</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="I18">
-        <v>0.1456953642384106</v>
+        <v>0.140625</v>
       </c>
       <c r="J18">
-        <v>0.423841059602649</v>
+        <v>0.4375</v>
       </c>
       <c r="K18">
-        <v>0.09933774834437085</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01986754966887417</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04635761589403974</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.119205298013245</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0297741273100616</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2063655030800821</v>
+        <v>0.2032388663967611</v>
       </c>
       <c r="I19">
-        <v>0.07700205338809035</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J19">
-        <v>0.3562628336755647</v>
+        <v>0.3643724696356275</v>
       </c>
       <c r="K19">
-        <v>0.1078028747433265</v>
+        <v>0.108502024291498</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01848049281314168</v>
+        <v>0.01781376518218623</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07494866529774127</v>
+        <v>0.07611336032388664</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1293634496919918</v>
+        <v>0.1246963562753036</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Winthrop_A.xlsx
+++ b/team_specific_matrix/Winthrop_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2025</v>
+        <v>0.2086021505376344</v>
       </c>
       <c r="C2">
-        <v>0.5575</v>
+        <v>0.5419354838709678</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.015</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1268817204301075</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.1053763440860215</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008888888888888889</v>
+        <v>0.0078125</v>
       </c>
       <c r="C3">
-        <v>0.004444444444444444</v>
+        <v>0.00390625</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008888888888888889</v>
+        <v>0.01953125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7555555555555555</v>
+        <v>0.75390625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2222222222222222</v>
+        <v>0.21484375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01428571428571429</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P4">
-        <v>0.6714285714285714</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2428571428571429</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07079646017699115</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02212389380530973</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="E6">
-        <v>0.004424778761061947</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="F6">
-        <v>0.06637168141592921</v>
+        <v>0.07364341085271318</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4026548672566372</v>
+        <v>0.3837209302325582</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008849557522123894</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1415929203539823</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="R6">
-        <v>0.03982300884955752</v>
+        <v>0.04263565891472868</v>
       </c>
       <c r="S6">
-        <v>0.2433628318584071</v>
+        <v>0.2713178294573643</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1311475409836066</v>
+        <v>0.1273584905660377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0273224043715847</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03278688524590164</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1256830601092896</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03278688524590164</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1256830601092896</v>
+        <v>0.1367924528301887</v>
       </c>
       <c r="R7">
-        <v>0.1092896174863388</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="S7">
-        <v>0.4153005464480874</v>
+        <v>0.3915094339622642</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1614457831325301</v>
+        <v>0.1577777777777778</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02650602409638554</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="F8">
-        <v>0.05301204819277108</v>
+        <v>0.05111111111111111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.108433734939759</v>
+        <v>0.1088888888888889</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02409638554216868</v>
+        <v>0.02444444444444445</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1566265060240964</v>
+        <v>0.1644444444444444</v>
       </c>
       <c r="R8">
-        <v>0.09397590361445783</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="S8">
-        <v>0.3759036144578313</v>
+        <v>0.3711111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1157894736842105</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02105263157894737</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="E9">
-        <v>0.005263157894736842</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="F9">
-        <v>0.02631578947368421</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1368421052631579</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02105263157894737</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2052631578947368</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="R9">
-        <v>0.07368421052631578</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="S9">
-        <v>0.3947368421052632</v>
+        <v>0.3738738738738739</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1423047177107502</v>
+        <v>0.1509695290858726</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03480278422273782</v>
+        <v>0.03393351800554017</v>
       </c>
       <c r="E10">
-        <v>0.002320185614849188</v>
+        <v>0.002077562326869806</v>
       </c>
       <c r="F10">
-        <v>0.05413766434648105</v>
+        <v>0.05678670360110803</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.119876256767208</v>
+        <v>0.1191135734072022</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01160092807424594</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1979891724671307</v>
+        <v>0.195983379501385</v>
       </c>
       <c r="R10">
-        <v>0.08816705336426914</v>
+        <v>0.08518005540166206</v>
       </c>
       <c r="S10">
-        <v>0.3488012374323279</v>
+        <v>0.342797783933518</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1134751773049645</v>
+        <v>0.1238390092879257</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07446808510638298</v>
+        <v>0.0804953560371517</v>
       </c>
       <c r="K11">
-        <v>0.1773049645390071</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L11">
-        <v>0.6134751773049646</v>
+        <v>0.6006191950464397</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02127659574468085</v>
+        <v>0.01857585139318885</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7727272727272727</v>
+        <v>0.7828282828282829</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1590909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="K12">
-        <v>0.01136363636363636</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="L12">
-        <v>0.01704545454545454</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03977272727272727</v>
+        <v>0.03535353535353535</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6216216216216216</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3243243243243243</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03347280334728033</v>
+        <v>0.0339622641509434</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09623430962343096</v>
+        <v>0.1018867924528302</v>
       </c>
       <c r="I15">
-        <v>0.07531380753138076</v>
+        <v>0.07169811320754717</v>
       </c>
       <c r="J15">
-        <v>0.401673640167364</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="K15">
-        <v>0.08368200836820083</v>
+        <v>0.07924528301886792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004184100418410041</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07112970711297072</v>
+        <v>0.06792452830188679</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2343096234309623</v>
+        <v>0.2452830188679245</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02264150943396226</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1735849056603773</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="I16">
-        <v>0.09056603773584905</v>
+        <v>0.09060402684563758</v>
       </c>
       <c r="J16">
-        <v>0.3547169811320754</v>
+        <v>0.3456375838926175</v>
       </c>
       <c r="K16">
-        <v>0.1056603773584906</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01886792452830189</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="N16">
-        <v>0.003773584905660377</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="O16">
-        <v>0.0830188679245283</v>
+        <v>0.07718120805369127</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1471698113207547</v>
+        <v>0.1543624161073825</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.05528846153846154</v>
+        <v>0.05353319057815846</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1682692307692308</v>
+        <v>0.158458244111349</v>
       </c>
       <c r="I17">
-        <v>0.0673076923076923</v>
+        <v>0.07922912205567452</v>
       </c>
       <c r="J17">
-        <v>0.40625</v>
+        <v>0.4025695931477516</v>
       </c>
       <c r="K17">
-        <v>0.07932692307692307</v>
+        <v>0.08565310492505353</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01682692307692308</v>
+        <v>0.01498929336188437</v>
       </c>
       <c r="N17">
-        <v>0.002403846153846154</v>
+        <v>0.002141327623126338</v>
       </c>
       <c r="O17">
-        <v>0.08653846153846154</v>
+        <v>0.08565310492505353</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1177884615384615</v>
+        <v>0.1177730192719486</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04166666666666666</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1197916666666667</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="I18">
-        <v>0.140625</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="J18">
-        <v>0.4375</v>
+        <v>0.4454976303317535</v>
       </c>
       <c r="K18">
-        <v>0.08854166666666667</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02083333333333333</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04166666666666666</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.109375</v>
+        <v>0.1090047393364929</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02834008097165992</v>
+        <v>0.02633504023408925</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2032388663967611</v>
+        <v>0.1982443306510607</v>
       </c>
       <c r="I19">
-        <v>0.07692307692307693</v>
+        <v>0.08266276517922458</v>
       </c>
       <c r="J19">
-        <v>0.3643724696356275</v>
+        <v>0.3672275054864667</v>
       </c>
       <c r="K19">
-        <v>0.108502024291498</v>
+        <v>0.1126554498902707</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01781376518218623</v>
+        <v>0.0182882223847842</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07611336032388664</v>
+        <v>0.07461594732991954</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1246963562753036</v>
+        <v>0.1199707388441843</v>
       </c>
     </row>
   </sheetData>
